--- a/grades.xlsx
+++ b/grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Github\grades_UMNG_analsys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Github\grades_college_analsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B44BF-6287-4A0F-A289-86CB0D3EBC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AFB0D0-DD45-426A-8B6D-E745F3BDD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6DF5E2E-5421-40CB-8DFE-6AF4FA6C8A53}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{D6DF5E2E-5421-40CB-8DFE-6AF4FA6C8A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Applied Dynamcis</t>
-  </si>
-  <si>
     <t>Material Selection</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Applied Dynamics</t>
   </si>
 </sst>
 </file>
@@ -128,13 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,19 +470,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C8F26E-D678-4805-96EB-EB26D2F5B932}">
   <dimension ref="A1:J548"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3"/>
     <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -514,7 +512,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>3419</v>
       </c>
       <c r="B2" t="s">
@@ -546,7 +544,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>3418</v>
       </c>
       <c r="B3" t="s">
@@ -578,7 +576,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3425</v>
       </c>
       <c r="B4" t="s">
@@ -610,7 +608,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>3463</v>
       </c>
       <c r="B5" t="s">
@@ -642,7 +640,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>3393</v>
       </c>
       <c r="B6" t="s">
@@ -674,7 +672,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>3313</v>
       </c>
       <c r="B7" t="s">
@@ -706,7 +704,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>3483</v>
       </c>
       <c r="B8" t="s">
@@ -738,7 +736,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>3294</v>
       </c>
       <c r="B9" t="s">
@@ -770,7 +768,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>3410</v>
       </c>
       <c r="B10" t="s">
@@ -802,7 +800,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>3269</v>
       </c>
       <c r="B11" t="s">
@@ -834,7 +832,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>3487</v>
       </c>
       <c r="B12" t="s">
@@ -866,7 +864,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>3410</v>
       </c>
       <c r="B13" t="s">
@@ -898,7 +896,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>3494</v>
       </c>
       <c r="B14" t="s">
@@ -930,7 +928,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>3295</v>
       </c>
       <c r="B15" t="s">
@@ -962,7 +960,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>3274</v>
       </c>
       <c r="B16" t="s">
@@ -994,7 +992,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>3169</v>
       </c>
       <c r="B17" t="s">
@@ -1026,7 +1024,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>3440</v>
       </c>
       <c r="B18" t="s">
@@ -1058,7 +1056,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>3426</v>
       </c>
       <c r="B19" t="s">
@@ -1090,7 +1088,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>3173</v>
       </c>
       <c r="B20" t="s">
@@ -1122,7 +1120,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>3442</v>
       </c>
       <c r="B21" t="s">
@@ -1154,7 +1152,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>3453</v>
       </c>
       <c r="B22" t="s">
@@ -1186,7 +1184,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>3569</v>
       </c>
       <c r="B23" t="s">
@@ -1218,7 +1216,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>3019</v>
       </c>
       <c r="B24" t="s">
@@ -1250,7 +1248,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>3485</v>
       </c>
       <c r="B25" t="s">
@@ -1282,7 +1280,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>3364</v>
       </c>
       <c r="B26" t="s">
@@ -1314,7 +1312,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>3466</v>
       </c>
       <c r="B27" t="s">
@@ -1346,7 +1344,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>3407</v>
       </c>
       <c r="B28" t="s">
@@ -1378,7 +1376,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>3406</v>
       </c>
       <c r="B29" t="s">
@@ -1410,7 +1408,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>3399</v>
       </c>
       <c r="B30" t="s">
@@ -1442,7 +1440,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>3445</v>
       </c>
       <c r="B31" t="s">
@@ -1474,7 +1472,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>3397</v>
       </c>
       <c r="B32" t="s">
@@ -1506,7 +1504,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>3213</v>
       </c>
       <c r="B33" t="s">
@@ -1538,7 +1536,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>3442</v>
       </c>
       <c r="B34" t="s">
@@ -1570,7 +1568,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>3376</v>
       </c>
       <c r="B35" t="s">
@@ -1602,7 +1600,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>3440</v>
       </c>
       <c r="B36" t="s">
@@ -1634,7 +1632,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>3408</v>
       </c>
       <c r="B37" t="s">
@@ -1666,7 +1664,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>3362</v>
       </c>
       <c r="B38" t="s">
@@ -1698,7 +1696,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>3379</v>
       </c>
       <c r="B39" t="s">
@@ -1730,7 +1728,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>3338</v>
       </c>
       <c r="B40" t="s">
@@ -1762,7 +1760,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>3037</v>
       </c>
       <c r="B41" t="s">
@@ -1794,7 +1792,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>3395</v>
       </c>
       <c r="B42" t="s">
@@ -1826,7 +1824,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>3288</v>
       </c>
       <c r="B43" t="s">
@@ -1858,7 +1856,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>3271</v>
       </c>
       <c r="B44" t="s">
@@ -1890,7 +1888,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>3457</v>
       </c>
       <c r="B45" t="s">
@@ -1922,7 +1920,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>3387</v>
       </c>
       <c r="B46" t="s">
@@ -1954,7 +1952,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>3156</v>
       </c>
       <c r="B47" t="s">
@@ -1986,7 +1984,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>3310</v>
       </c>
       <c r="B48" t="s">
@@ -2018,7 +2016,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>3461</v>
       </c>
       <c r="B49" t="s">
@@ -2050,7 +2048,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>3275</v>
       </c>
       <c r="B50" t="s">
@@ -2082,7 +2080,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>3311</v>
       </c>
       <c r="B51" t="s">
@@ -2114,7 +2112,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>3367</v>
       </c>
       <c r="B52" t="s">
@@ -2146,7 +2144,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>3380</v>
       </c>
       <c r="B53" t="s">
@@ -2178,7 +2176,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>3069</v>
       </c>
       <c r="B54" t="s">
@@ -2210,7 +2208,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>3241</v>
       </c>
       <c r="B55" t="s">
@@ -2242,7 +2240,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>3465</v>
       </c>
       <c r="B56" t="s">
@@ -2274,7 +2272,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>3343</v>
       </c>
       <c r="B57" t="s">
@@ -2306,7 +2304,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>3468</v>
       </c>
       <c r="B58" t="s">
@@ -2338,7 +2336,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>3444</v>
       </c>
       <c r="B59" t="s">
@@ -2370,7 +2368,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>3443</v>
       </c>
       <c r="B60" t="s">
@@ -2402,7 +2400,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>3402</v>
       </c>
       <c r="B61" t="s">
@@ -2434,7 +2432,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>3412</v>
       </c>
       <c r="B62" t="s">
@@ -2466,7 +2464,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>3471</v>
       </c>
       <c r="B63" t="s">
@@ -2498,7 +2496,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>2469</v>
       </c>
       <c r="B64" t="s">
@@ -2530,7 +2528,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>3577</v>
       </c>
       <c r="B65" t="s">
@@ -2562,7 +2560,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>3306</v>
       </c>
       <c r="B66" t="s">
@@ -2594,7 +2592,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>3403</v>
       </c>
       <c r="B67" t="s">
@@ -2626,7 +2624,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>3428</v>
       </c>
       <c r="B68" t="s">
@@ -2658,7 +2656,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>3415</v>
       </c>
       <c r="B69" t="s">
@@ -2690,7 +2688,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>3570</v>
       </c>
       <c r="B70" t="s">
@@ -2722,7 +2720,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>3394</v>
       </c>
       <c r="B71" t="s">
@@ -2754,7 +2752,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>3036</v>
       </c>
       <c r="B72" t="s">
@@ -2786,7 +2784,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>3524</v>
       </c>
       <c r="B73" t="s">
@@ -2818,7 +2816,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>3561</v>
       </c>
       <c r="B74" t="s">
@@ -2850,7 +2848,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>3358</v>
       </c>
       <c r="B75" t="s">
@@ -2882,7 +2880,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>3048</v>
       </c>
       <c r="B76" t="s">
@@ -2914,7 +2912,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>3531</v>
       </c>
       <c r="B77" t="s">
@@ -2946,7 +2944,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>3522</v>
       </c>
       <c r="B78" t="s">
@@ -2978,7 +2976,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>3572</v>
       </c>
       <c r="B79" t="s">
@@ -3010,7 +3008,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>3438</v>
       </c>
       <c r="B80" t="s">
@@ -3042,7 +3040,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>3546</v>
       </c>
       <c r="B81" t="s">
@@ -3074,7 +3072,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>3513</v>
       </c>
       <c r="B82" t="s">
@@ -3106,7 +3104,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>3585</v>
       </c>
       <c r="B83" t="s">
@@ -3138,7 +3136,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>3558</v>
       </c>
       <c r="B84" t="s">
@@ -3170,7 +3168,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>3334</v>
       </c>
       <c r="B85" t="s">
@@ -3202,7 +3200,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>3540</v>
       </c>
       <c r="B86" t="s">
@@ -3234,7 +3232,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>3661</v>
       </c>
       <c r="B87" t="s">
@@ -3266,7 +3264,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>3500</v>
       </c>
       <c r="B88" t="s">
@@ -3298,7 +3296,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>3450</v>
       </c>
       <c r="B89" t="s">
@@ -3330,7 +3328,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>3352</v>
       </c>
       <c r="B90" t="s">
@@ -3362,7 +3360,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>3479</v>
       </c>
       <c r="B91" t="s">
@@ -3394,7 +3392,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>3520</v>
       </c>
       <c r="B92" t="s">
@@ -3426,7 +3424,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>3257</v>
       </c>
       <c r="B93" t="s">
@@ -3458,7 +3456,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>3522</v>
       </c>
       <c r="B94" t="s">
@@ -3490,14 +3488,14 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>3363</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -3522,14 +3520,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>3394</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -3554,14 +3552,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>3295</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -3586,14 +3584,14 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>3332</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -3618,14 +3616,14 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>3288</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -3650,14 +3648,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A100" s="3">
+      <c r="A100">
         <v>3271</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -3682,14 +3680,14 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A101" s="3">
+      <c r="A101">
         <v>3488</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -3714,14 +3712,14 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A102" s="3">
+      <c r="A102">
         <v>3295</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -3746,14 +3744,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A103" s="3">
+      <c r="A103">
         <v>3309</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -3778,14 +3776,14 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A104" s="3">
+      <c r="A104">
         <v>3275</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -3810,14 +3808,14 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A105" s="3">
+      <c r="A105">
         <v>3253</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -3842,14 +3840,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" s="3">
+      <c r="A106">
         <v>3441</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -3874,14 +3872,14 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" s="3">
+      <c r="A107">
         <v>3425</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -3906,14 +3904,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
+      <c r="A108">
         <v>3444</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -3938,14 +3936,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A109" s="3">
+      <c r="A109">
         <v>3063</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -3970,14 +3968,14 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" s="3">
+      <c r="A110">
         <v>3464</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -4002,14 +4000,14 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="3">
+      <c r="A111">
         <v>3465</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -4034,14 +4032,14 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A112" s="3">
+      <c r="A112">
         <v>3459</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -4066,14 +4064,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A113" s="3">
+      <c r="A113">
         <v>3194</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -4098,14 +4096,14 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="3">
+      <c r="A114">
         <v>3343</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -4130,14 +4128,14 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A115" s="3">
+      <c r="A115">
         <v>3443</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -4162,14 +4160,14 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="3">
+      <c r="A116">
         <v>3402</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D116">
         <v>6</v>
@@ -4194,14 +4192,14 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A117" s="3">
+      <c r="A117">
         <v>3383</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -4226,14 +4224,14 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="3">
+      <c r="A118">
         <v>2966</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D118">
         <v>6</v>
@@ -4258,14 +4256,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A119" s="3">
+      <c r="A119">
         <v>3442</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>6</v>
@@ -4290,14 +4288,14 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="3">
+      <c r="A120">
         <v>2512</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -4322,14 +4320,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="3">
+      <c r="A121">
         <v>2518</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121">
         <v>9</v>
@@ -4354,14 +4352,14 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="3">
+      <c r="A122">
         <v>2625</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122">
         <v>9</v>
@@ -4386,14 +4384,14 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="3">
+      <c r="A123">
         <v>2484</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D123">
         <v>9</v>
@@ -4418,14 +4416,14 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A124" s="3">
+      <c r="A124">
         <v>2912</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>9</v>
@@ -4450,14 +4448,14 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125" s="3">
+      <c r="A125">
         <v>3021</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D125">
         <v>9</v>
@@ -4482,14 +4480,14 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A126" s="3">
+      <c r="A126">
         <v>2968</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>9</v>
@@ -4514,14 +4512,14 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="3">
+      <c r="A127">
         <v>2999</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D127">
         <v>9</v>
@@ -4546,14 +4544,14 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="3">
+      <c r="A128">
         <v>2917</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>9</v>
@@ -4578,14 +4576,14 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A129" s="3">
+      <c r="A129">
         <v>2966</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -4610,14 +4608,14 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A130" s="3">
+      <c r="A130">
         <v>2734</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -4642,14 +4640,14 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A131" s="3">
+      <c r="A131">
         <v>2929</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131">
         <v>9</v>
@@ -4674,14 +4672,14 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A132" s="3">
+      <c r="A132">
         <v>2838</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132">
         <v>9</v>
@@ -4706,14 +4704,14 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A133" s="3">
+      <c r="A133">
         <v>2933</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -4738,14 +4736,14 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A134" s="3">
+      <c r="A134">
         <v>2784</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134">
         <v>9</v>
@@ -4770,14 +4768,14 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A135" s="3">
+      <c r="A135">
         <v>2859</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135">
         <v>9</v>
@@ -4802,14 +4800,14 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A136" s="3">
+      <c r="A136">
         <v>3569</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -4834,14 +4832,14 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A137" s="3">
+      <c r="A137">
         <v>3331</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -4866,14 +4864,14 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A138" s="3">
+      <c r="A138">
         <v>3038</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -4898,14 +4896,14 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A139" s="3">
+      <c r="A139">
         <v>3436</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -4930,14 +4928,14 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A140" s="3">
+      <c r="A140">
         <v>3823</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -4962,14 +4960,14 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A141" s="3">
+      <c r="A141">
         <v>3272</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -4994,14 +4992,14 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A142" s="3">
+      <c r="A142">
         <v>3448</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -5026,14 +5024,14 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A143" s="3">
+      <c r="A143">
         <v>3523</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -5058,14 +5056,14 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A144" s="3">
+      <c r="A144">
         <v>2719</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -5090,14 +5088,14 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A145" s="3">
+      <c r="A145">
         <v>3585</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -5122,14 +5120,14 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A146" s="3">
+      <c r="A146">
         <v>3072</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -5154,14 +5152,14 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A147" s="3">
+      <c r="A147">
         <v>3289</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -5186,14 +5184,14 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A148" s="3">
+      <c r="A148">
         <v>3431</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D148">
         <v>6</v>
@@ -5218,14 +5216,14 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A149" s="3">
+      <c r="A149">
         <v>3407</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D149">
         <v>6</v>
@@ -5250,14 +5248,14 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A150" s="3">
+      <c r="A150">
         <v>3476</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D150">
         <v>6</v>
@@ -5282,14 +5280,14 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A151" s="3">
+      <c r="A151">
         <v>3562</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D151">
         <v>6</v>
@@ -5314,14 +5312,14 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A152" s="3">
+      <c r="A152">
         <v>3519</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <v>6</v>
@@ -5346,7 +5344,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A153" s="3">
+      <c r="A153">
         <v>3526</v>
       </c>
       <c r="B153" t="s">
@@ -5378,7 +5376,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A154" s="3">
+      <c r="A154">
         <v>3717</v>
       </c>
       <c r="B154" t="s">
@@ -5410,7 +5408,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A155" s="3">
+      <c r="A155">
         <v>3483</v>
       </c>
       <c r="B155" t="s">
@@ -5442,7 +5440,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A156" s="3">
+      <c r="A156">
         <v>3525</v>
       </c>
       <c r="B156" t="s">
@@ -5474,7 +5472,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A157" s="3">
+      <c r="A157">
         <v>3795</v>
       </c>
       <c r="B157" t="s">
@@ -5506,7 +5504,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A158" s="3">
+      <c r="A158">
         <v>3649</v>
       </c>
       <c r="B158" t="s">
@@ -5538,7 +5536,7 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A159" s="3">
+      <c r="A159">
         <v>3772</v>
       </c>
       <c r="B159" t="s">
@@ -5570,7 +5568,7 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A160" s="3">
+      <c r="A160">
         <v>3514</v>
       </c>
       <c r="B160" t="s">
@@ -5602,7 +5600,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A161" s="3">
+      <c r="A161">
         <v>3578</v>
       </c>
       <c r="B161" t="s">
@@ -5634,7 +5632,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A162" s="3">
+      <c r="A162">
         <v>3758</v>
       </c>
       <c r="B162" t="s">
@@ -5666,7 +5664,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A163" s="3">
+      <c r="A163">
         <v>3754</v>
       </c>
       <c r="B163" t="s">
@@ -5698,7 +5696,7 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A164" s="3">
+      <c r="A164">
         <v>3462</v>
       </c>
       <c r="B164" t="s">
@@ -5730,7 +5728,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A165" s="3">
+      <c r="A165">
         <v>3506</v>
       </c>
       <c r="B165" t="s">
@@ -5762,7 +5760,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A166" s="3">
+      <c r="A166">
         <v>3597</v>
       </c>
       <c r="B166" t="s">
@@ -5794,7 +5792,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A167" s="3">
+      <c r="A167">
         <v>3728</v>
       </c>
       <c r="B167" t="s">
@@ -5826,7 +5824,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A168" s="3">
+      <c r="A168">
         <v>3618</v>
       </c>
       <c r="B168" t="s">
@@ -5858,7 +5856,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A169" s="3">
+      <c r="A169">
         <v>3469</v>
       </c>
       <c r="B169" t="s">
@@ -5890,7 +5888,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A170" s="3">
+      <c r="A170">
         <v>3755</v>
       </c>
       <c r="B170" t="s">
@@ -5922,7 +5920,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A171" s="3">
+      <c r="A171">
         <v>3759</v>
       </c>
       <c r="B171" t="s">
@@ -5954,7 +5952,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A172" s="3">
+      <c r="A172">
         <v>3701</v>
       </c>
       <c r="B172" t="s">
@@ -5986,7 +5984,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A173" s="3">
+      <c r="A173">
         <v>3667</v>
       </c>
       <c r="B173" t="s">
@@ -6018,14 +6016,14 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A174" s="3">
+      <c r="A174">
         <v>1967</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -6050,14 +6048,14 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A175" s="3">
+      <c r="A175">
         <v>2981</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175">
         <v>9</v>
@@ -6082,14 +6080,14 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A176" s="3">
+      <c r="A176">
         <v>2871</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176">
         <v>9</v>
@@ -6114,14 +6112,14 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A177" s="3">
+      <c r="A177">
         <v>2422</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <v>9</v>
@@ -6146,14 +6144,14 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A178" s="3">
+      <c r="A178">
         <v>2994</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D178">
         <v>9</v>
@@ -6178,14 +6176,14 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A179" s="3">
+      <c r="A179">
         <v>2823</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179">
         <v>9</v>
@@ -6210,14 +6208,14 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A180" s="3">
+      <c r="A180">
         <v>2929</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180">
         <v>9</v>
@@ -6242,14 +6240,14 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A181" s="3">
+      <c r="A181">
         <v>3003</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181">
         <v>9</v>
@@ -6274,14 +6272,14 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A182" s="3">
+      <c r="A182">
         <v>2946</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182">
         <v>9</v>
@@ -6306,14 +6304,14 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A183" s="3">
+      <c r="A183">
         <v>2391</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183">
         <v>9</v>
@@ -6338,14 +6336,14 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A184" s="3">
+      <c r="A184">
         <v>3125</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D184">
         <v>9</v>
@@ -6370,14 +6368,14 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A185" s="3">
+      <c r="A185">
         <v>3130</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185">
         <v>9</v>
@@ -6402,14 +6400,14 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A186" s="3">
+      <c r="A186">
         <v>3130</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186">
         <v>9</v>
@@ -6434,14 +6432,14 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A187" s="3">
+      <c r="A187">
         <v>3245</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187">
         <v>9</v>
@@ -6466,14 +6464,14 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A188" s="3">
+      <c r="A188">
         <v>3136</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D188">
         <v>9</v>
@@ -6498,14 +6496,14 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A189" s="3">
+      <c r="A189">
         <v>3228</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D189">
         <v>9</v>
@@ -6530,14 +6528,14 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A190" s="3">
+      <c r="A190">
         <v>3143</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190">
         <v>9</v>
@@ -6562,14 +6560,14 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A191" s="3">
+      <c r="A191">
         <v>3226</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D191">
         <v>9</v>
@@ -6594,14 +6592,14 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A192" s="3">
+      <c r="A192">
         <v>3153</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D192">
         <v>9</v>
@@ -6626,14 +6624,14 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A193" s="3">
+      <c r="A193">
         <v>3249</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D193">
         <v>9</v>
@@ -6658,14 +6656,14 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A194" s="3">
+      <c r="A194">
         <v>3156</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -6690,14 +6688,14 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A195" s="3">
+      <c r="A195">
         <v>3161</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D195">
         <v>9</v>
@@ -6722,14 +6720,14 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A196" s="3">
+      <c r="A196">
         <v>2911</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -6754,14 +6752,14 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A197" s="3">
+      <c r="A197">
         <v>3231</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -6786,14 +6784,14 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A198" s="3">
+      <c r="A198">
         <v>3163</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198">
         <v>9</v>
@@ -6818,14 +6816,14 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A199" s="3">
+      <c r="A199">
         <v>2828</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -6850,14 +6848,14 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A200" s="3">
+      <c r="A200">
         <v>2632</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D200">
         <v>9</v>
@@ -6882,14 +6880,14 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A201" s="3">
+      <c r="A201">
         <v>3349</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D201">
         <v>9</v>
@@ -6914,14 +6912,14 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A202" s="3">
+      <c r="A202">
         <v>3186</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -6946,14 +6944,14 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A203" s="3">
+      <c r="A203">
         <v>3075</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203">
         <v>9</v>
@@ -6978,14 +6976,14 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A204" s="3">
+      <c r="A204">
         <v>3194</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204">
         <v>9</v>
@@ -7010,14 +7008,14 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A205" s="3">
+      <c r="A205">
         <v>3198</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D205">
         <v>9</v>
@@ -7042,14 +7040,14 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A206" s="3">
+      <c r="A206">
         <v>3262</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D206">
         <v>9</v>
@@ -7074,14 +7072,14 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A207" s="3">
+      <c r="A207">
         <v>3254</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -7106,14 +7104,14 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A208" s="3">
+      <c r="A208">
         <v>3209</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D208">
         <v>9</v>
@@ -7138,14 +7136,14 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A209" s="3">
+      <c r="A209">
         <v>3216</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D209">
         <v>9</v>
@@ -7170,14 +7168,14 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A210" s="3">
+      <c r="A210">
         <v>3715</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D210">
         <v>6</v>
@@ -7202,14 +7200,14 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A211" s="3">
+      <c r="A211">
         <v>3647</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D211">
         <v>6</v>
@@ -7234,14 +7232,14 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A212" s="3">
+      <c r="A212">
         <v>3131</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D212">
         <v>6</v>
@@ -7266,14 +7264,14 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A213" s="3">
+      <c r="A213">
         <v>3544</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D213">
         <v>6</v>
@@ -7298,14 +7296,14 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A214" s="3">
+      <c r="A214">
         <v>3303</v>
       </c>
       <c r="B214" t="s">
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D214">
         <v>6</v>
@@ -7330,14 +7328,14 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A215" s="3">
+      <c r="A215">
         <v>3687</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D215">
         <v>6</v>
@@ -7362,14 +7360,14 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A216" s="3">
+      <c r="A216">
         <v>3654</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D216">
         <v>6</v>
@@ -7394,14 +7392,14 @@
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A217" s="3">
+      <c r="A217">
         <v>3668</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D217">
         <v>6</v>
@@ -7426,14 +7424,14 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A218" s="3">
+      <c r="A218">
         <v>3758</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D218">
         <v>6</v>
@@ -7458,14 +7456,14 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A219" s="3">
+      <c r="A219">
         <v>3661</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>6</v>
@@ -7490,14 +7488,14 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A220" s="3">
+      <c r="A220">
         <v>3397</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D220">
         <v>6</v>
@@ -7522,14 +7520,14 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A221" s="3">
+      <c r="A221">
         <v>3739</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>6</v>
@@ -7554,14 +7552,14 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A222" s="3">
+      <c r="A222">
         <v>3598</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D222">
         <v>6</v>
@@ -7586,14 +7584,14 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A223" s="3">
+      <c r="A223">
         <v>3685</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D223">
         <v>6</v>
@@ -7618,14 +7616,14 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A224" s="3">
+      <c r="A224">
         <v>3595</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D224">
         <v>6</v>
@@ -7650,14 +7648,14 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A225" s="3">
+      <c r="A225">
         <v>3618</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D225">
         <v>6</v>
@@ -7682,14 +7680,14 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A226" s="3">
+      <c r="A226">
         <v>3589</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D226">
         <v>6</v>
@@ -7714,14 +7712,14 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A227" s="3">
+      <c r="A227">
         <v>3743</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -7746,14 +7744,14 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A228" s="3">
+      <c r="A228">
         <v>3672</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D228">
         <v>6</v>
@@ -7778,14 +7776,14 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A229" s="3">
+      <c r="A229">
         <v>3468</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D229">
         <v>6</v>
@@ -7810,14 +7808,14 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A230" s="3">
+      <c r="A230">
         <v>3754</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D230">
         <v>6</v>
@@ -7842,14 +7840,14 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A231" s="3">
+      <c r="A231">
         <v>3651</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D231">
         <v>6</v>
@@ -7874,14 +7872,14 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A232" s="3">
+      <c r="A232">
         <v>3759</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D232">
         <v>6</v>
@@ -7906,14 +7904,14 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A233" s="3">
+      <c r="A233">
         <v>3752</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D233">
         <v>6</v>
@@ -7938,14 +7936,14 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A234" s="3">
+      <c r="A234">
         <v>3699</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D234">
         <v>6</v>
@@ -7970,14 +7968,14 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A235" s="3">
+      <c r="A235">
         <v>3432</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D235">
         <v>6</v>
@@ -8002,14 +8000,14 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A236" s="3">
+      <c r="A236">
         <v>3524</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D236">
         <v>6</v>
@@ -8034,7 +8032,7 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A237" s="3">
+      <c r="A237">
         <v>3826</v>
       </c>
       <c r="B237" t="s">
@@ -8066,7 +8064,7 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A238" s="3">
+      <c r="A238">
         <v>3780</v>
       </c>
       <c r="B238" t="s">
@@ -8098,7 +8096,7 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A239" s="3">
+      <c r="A239">
         <v>3724</v>
       </c>
       <c r="B239" t="s">
@@ -8130,7 +8128,7 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A240" s="3">
+      <c r="A240">
         <v>3489</v>
       </c>
       <c r="B240" t="s">
@@ -8162,7 +8160,7 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A241" s="3">
+      <c r="A241">
         <v>3596</v>
       </c>
       <c r="B241" t="s">
@@ -8194,7 +8192,7 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A242" s="3">
+      <c r="A242">
         <v>3721</v>
       </c>
       <c r="B242" t="s">
@@ -8226,7 +8224,7 @@
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A243" s="3">
+      <c r="A243">
         <v>3674</v>
       </c>
       <c r="B243" t="s">
@@ -8258,7 +8256,7 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A244" s="3">
+      <c r="A244">
         <v>3804</v>
       </c>
       <c r="B244" t="s">
@@ -8290,7 +8288,7 @@
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A245" s="3">
+      <c r="A245">
         <v>3580</v>
       </c>
       <c r="B245" t="s">
@@ -8322,7 +8320,7 @@
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A246" s="3">
+      <c r="A246">
         <v>3692</v>
       </c>
       <c r="B246" t="s">
@@ -8354,7 +8352,7 @@
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A247" s="3">
+      <c r="A247">
         <v>3629</v>
       </c>
       <c r="B247" t="s">
@@ -8386,7 +8384,7 @@
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A248" s="3">
+      <c r="A248">
         <v>3542</v>
       </c>
       <c r="B248" t="s">
@@ -8418,7 +8416,7 @@
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A249" s="3">
+      <c r="A249">
         <v>3637</v>
       </c>
       <c r="B249" t="s">
@@ -8450,7 +8448,7 @@
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A250" s="3">
+      <c r="A250">
         <v>2734</v>
       </c>
       <c r="B250" t="s">
@@ -8482,7 +8480,7 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A251" s="3">
+      <c r="A251">
         <v>3711</v>
       </c>
       <c r="B251" t="s">
@@ -8514,7 +8512,7 @@
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A252" s="3">
+      <c r="A252">
         <v>3806</v>
       </c>
       <c r="B252" t="s">
@@ -8546,7 +8544,7 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A253" s="3">
+      <c r="A253">
         <v>3793</v>
       </c>
       <c r="B253" t="s">
@@ -8578,7 +8576,7 @@
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A254" s="3">
+      <c r="A254">
         <v>3791</v>
       </c>
       <c r="B254" t="s">
@@ -8610,7 +8608,7 @@
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A255" s="3">
+      <c r="A255">
         <v>3585</v>
       </c>
       <c r="B255" t="s">
@@ -8642,7 +8640,7 @@
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A256" s="3">
+      <c r="A256">
         <v>3847</v>
       </c>
       <c r="B256" t="s">
@@ -8674,7 +8672,7 @@
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A257" s="3">
+      <c r="A257">
         <v>3521</v>
       </c>
       <c r="B257" t="s">
@@ -8706,7 +8704,7 @@
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A258" s="3">
+      <c r="A258">
         <v>3958</v>
       </c>
       <c r="B258" t="s">
@@ -8738,7 +8736,7 @@
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A259" s="3">
+      <c r="A259">
         <v>3645</v>
       </c>
       <c r="B259" t="s">
@@ -8770,7 +8768,7 @@
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A260" s="3">
+      <c r="A260">
         <v>3353</v>
       </c>
       <c r="B260" t="s">
@@ -8802,7 +8800,7 @@
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A261" s="3">
+      <c r="A261">
         <v>3096</v>
       </c>
       <c r="B261" t="s">
@@ -8834,7 +8832,7 @@
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A262" s="3">
+      <c r="A262">
         <v>3710</v>
       </c>
       <c r="B262" t="s">
@@ -8866,7 +8864,7 @@
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A263" s="3">
+      <c r="A263">
         <v>3787</v>
       </c>
       <c r="B263" t="s">
@@ -8898,7 +8896,7 @@
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A264" s="3">
+      <c r="A264">
         <v>3808</v>
       </c>
       <c r="B264" t="s">
@@ -8930,7 +8928,7 @@
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A265" s="3">
+      <c r="A265">
         <v>3531</v>
       </c>
       <c r="B265" t="s">
@@ -8962,7 +8960,7 @@
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A266" s="3">
+      <c r="A266">
         <v>3498</v>
       </c>
       <c r="B266" t="s">
@@ -8994,14 +8992,14 @@
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A267" s="3">
+      <c r="A267">
         <v>3304</v>
       </c>
       <c r="B267" t="s">
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D267">
         <v>9</v>
@@ -9026,14 +9024,14 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A268" s="3">
+      <c r="A268">
         <v>3323</v>
       </c>
       <c r="B268" t="s">
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D268">
         <v>9</v>
@@ -9058,14 +9056,14 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A269" s="3">
+      <c r="A269">
         <v>2685</v>
       </c>
       <c r="B269" t="s">
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D269">
         <v>9</v>
@@ -9090,14 +9088,14 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A270" s="3">
+      <c r="A270">
         <v>3318</v>
       </c>
       <c r="B270" t="s">
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D270">
         <v>9</v>
@@ -9122,14 +9120,14 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A271" s="3">
+      <c r="A271">
         <v>3321</v>
       </c>
       <c r="B271" t="s">
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D271">
         <v>9</v>
@@ -9154,14 +9152,14 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A272" s="3">
+      <c r="A272">
         <v>3332</v>
       </c>
       <c r="B272" t="s">
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D272">
         <v>9</v>
@@ -9186,14 +9184,14 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A273" s="3">
+      <c r="A273">
         <v>3148</v>
       </c>
       <c r="B273" t="s">
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D273">
         <v>9</v>
@@ -9218,14 +9216,14 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A274" s="3">
+      <c r="A274">
         <v>3150</v>
       </c>
       <c r="B274" t="s">
         <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D274">
         <v>9</v>
@@ -9250,14 +9248,14 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A275" s="3">
+      <c r="A275">
         <v>3296</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D275">
         <v>9</v>
@@ -9282,14 +9280,14 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A276" s="3">
+      <c r="A276">
         <v>3274</v>
       </c>
       <c r="B276" t="s">
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D276">
         <v>9</v>
@@ -9314,14 +9312,14 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A277" s="3">
+      <c r="A277">
         <v>3328</v>
       </c>
       <c r="B277" t="s">
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D277">
         <v>9</v>
@@ -9346,14 +9344,14 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A278" s="3">
+      <c r="A278">
         <v>3169</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D278">
         <v>9</v>
@@ -9378,14 +9376,14 @@
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A279" s="3">
+      <c r="A279">
         <v>3252</v>
       </c>
       <c r="B279" t="s">
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D279">
         <v>9</v>
@@ -9410,14 +9408,14 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A280" s="3">
+      <c r="A280">
         <v>3173</v>
       </c>
       <c r="B280" t="s">
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D280">
         <v>9</v>
@@ -9442,14 +9440,14 @@
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A281" s="3">
+      <c r="A281">
         <v>3177</v>
       </c>
       <c r="B281" t="s">
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D281">
         <v>9</v>
@@ -9474,14 +9472,14 @@
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A282" s="3">
+      <c r="A282">
         <v>3328</v>
       </c>
       <c r="B282" t="s">
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D282">
         <v>9</v>
@@ -9506,14 +9504,14 @@
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A283" s="3">
+      <c r="A283">
         <v>3180</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D283">
         <v>9</v>
@@ -9538,14 +9536,14 @@
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A284" s="3">
+      <c r="A284">
         <v>3281</v>
       </c>
       <c r="B284" t="s">
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D284">
         <v>9</v>
@@ -9570,14 +9568,14 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A285" s="3">
+      <c r="A285">
         <v>3070</v>
       </c>
       <c r="B285" t="s">
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D285">
         <v>9</v>
@@ -9602,14 +9600,14 @@
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A286" s="3">
+      <c r="A286">
         <v>3071</v>
       </c>
       <c r="B286" t="s">
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D286">
         <v>9</v>
@@ -9634,14 +9632,14 @@
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A287" s="3">
+      <c r="A287">
         <v>3190</v>
       </c>
       <c r="B287" t="s">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D287">
         <v>9</v>
@@ -9666,14 +9664,14 @@
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A288" s="3">
+      <c r="A288">
         <v>3265</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D288">
         <v>9</v>
@@ -9698,14 +9696,14 @@
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A289" s="3">
+      <c r="A289">
         <v>3310</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D289">
         <v>9</v>
@@ -9730,14 +9728,14 @@
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A290" s="3">
+      <c r="A290">
         <v>3110</v>
       </c>
       <c r="B290" t="s">
         <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D290">
         <v>9</v>
@@ -9762,14 +9760,14 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A291" s="3">
+      <c r="A291">
         <v>3343</v>
       </c>
       <c r="B291" t="s">
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D291">
         <v>9</v>
@@ -9794,14 +9792,14 @@
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A292" s="3">
+      <c r="A292">
         <v>3220</v>
       </c>
       <c r="B292" t="s">
         <v>11</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D292">
         <v>9</v>
@@ -9826,14 +9824,14 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A293" s="3">
+      <c r="A293">
         <v>3285</v>
       </c>
       <c r="B293" t="s">
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D293">
         <v>9</v>
@@ -9858,14 +9856,14 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A294" s="3">
+      <c r="A294">
         <v>3124</v>
       </c>
       <c r="B294" t="s">
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D294">
         <v>9</v>
@@ -9890,14 +9888,14 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A295" s="3">
+      <c r="A295">
         <v>3346</v>
       </c>
       <c r="B295" t="s">
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D295">
         <v>9</v>
@@ -9922,14 +9920,14 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A296" s="3">
+      <c r="A296">
         <v>2920</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D296">
         <v>9</v>
@@ -9954,14 +9952,14 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A297" s="3">
+      <c r="A297">
         <v>3194</v>
       </c>
       <c r="B297" t="s">
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D297">
         <v>9</v>
@@ -9986,14 +9984,14 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A298" s="3">
+      <c r="A298">
         <v>3202</v>
       </c>
       <c r="B298" t="s">
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298">
         <v>9</v>
@@ -10018,14 +10016,14 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A299" s="3">
+      <c r="A299">
         <v>3206</v>
       </c>
       <c r="B299" t="s">
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D299">
         <v>9</v>
@@ -10050,14 +10048,14 @@
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A300" s="3">
+      <c r="A300">
         <v>3213</v>
       </c>
       <c r="B300" t="s">
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D300">
         <v>9</v>
@@ -10082,7 +10080,7 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A301" s="3">
+      <c r="A301">
         <v>3381</v>
       </c>
       <c r="B301" t="s">
@@ -10114,7 +10112,7 @@
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A302" s="3">
+      <c r="A302">
         <v>3861</v>
       </c>
       <c r="B302" t="s">
@@ -10146,7 +10144,7 @@
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A303" s="3">
+      <c r="A303">
         <v>3884</v>
       </c>
       <c r="B303" t="s">
@@ -10178,7 +10176,7 @@
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A304" s="3">
+      <c r="A304">
         <v>3804</v>
       </c>
       <c r="B304" t="s">
@@ -10210,7 +10208,7 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A305" s="3">
+      <c r="A305">
         <v>3853</v>
       </c>
       <c r="B305" t="s">
@@ -10242,7 +10240,7 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A306" s="3">
+      <c r="A306">
         <v>3836</v>
       </c>
       <c r="B306" t="s">
@@ -10274,7 +10272,7 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A307" s="3">
+      <c r="A307">
         <v>3850</v>
       </c>
       <c r="B307" t="s">
@@ -10306,7 +10304,7 @@
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A308" s="3">
+      <c r="A308">
         <v>3892</v>
       </c>
       <c r="B308" t="s">
@@ -10338,7 +10336,7 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A309" s="3">
+      <c r="A309">
         <v>3877</v>
       </c>
       <c r="B309" t="s">
@@ -10370,7 +10368,7 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A310" s="3">
+      <c r="A310">
         <v>3877</v>
       </c>
       <c r="B310" t="s">
@@ -10402,7 +10400,7 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A311" s="3">
+      <c r="A311">
         <v>3866</v>
       </c>
       <c r="B311" t="s">
@@ -10434,7 +10432,7 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A312" s="3">
+      <c r="A312">
         <v>3930</v>
       </c>
       <c r="B312" t="s">
@@ -10466,7 +10464,7 @@
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A313" s="3">
+      <c r="A313">
         <v>3854</v>
       </c>
       <c r="B313" t="s">
@@ -10498,7 +10496,7 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A314" s="3">
+      <c r="A314">
         <v>3845</v>
       </c>
       <c r="B314" t="s">
@@ -10530,7 +10528,7 @@
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A315" s="3">
+      <c r="A315">
         <v>3883</v>
       </c>
       <c r="B315" t="s">
@@ -10562,7 +10560,7 @@
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A316" s="3">
+      <c r="A316">
         <v>3848</v>
       </c>
       <c r="B316" t="s">
@@ -10594,7 +10592,7 @@
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A317" s="3">
+      <c r="A317">
         <v>3852</v>
       </c>
       <c r="B317" t="s">
@@ -10626,7 +10624,7 @@
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A318" s="3">
+      <c r="A318">
         <v>3901</v>
       </c>
       <c r="B318" t="s">
@@ -10658,7 +10656,7 @@
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A319" s="3">
+      <c r="A319">
         <v>3889</v>
       </c>
       <c r="B319" t="s">
@@ -10690,7 +10688,7 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A320" s="3">
+      <c r="A320">
         <v>3944</v>
       </c>
       <c r="B320" t="s">
@@ -10722,7 +10720,7 @@
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A321" s="3">
+      <c r="A321">
         <v>3943</v>
       </c>
       <c r="B321" t="s">
@@ -10754,7 +10752,7 @@
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A322" s="3">
+      <c r="A322">
         <v>3837</v>
       </c>
       <c r="B322" t="s">
@@ -10786,7 +10784,7 @@
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A323" s="3">
+      <c r="A323">
         <v>3909</v>
       </c>
       <c r="B323" t="s">
@@ -10818,7 +10816,7 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A324" s="3">
+      <c r="A324">
         <v>3842</v>
       </c>
       <c r="B324" t="s">
@@ -10850,7 +10848,7 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A325" s="3">
+      <c r="A325">
         <v>3808</v>
       </c>
       <c r="B325" t="s">
@@ -10882,7 +10880,7 @@
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A326" s="3">
+      <c r="A326">
         <v>3932</v>
       </c>
       <c r="B326" t="s">
@@ -10914,7 +10912,7 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A327" s="3">
+      <c r="A327">
         <v>3866</v>
       </c>
       <c r="B327" t="s">
@@ -10946,14 +10944,14 @@
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A328" s="3">
+      <c r="A328">
         <v>3394</v>
       </c>
       <c r="B328" t="s">
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D328">
         <v>9</v>
@@ -10978,14 +10976,14 @@
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A329" s="3">
+      <c r="A329">
         <v>3362</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D329">
         <v>9</v>
@@ -11010,14 +11008,14 @@
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A330" s="3">
+      <c r="A330">
         <v>2686</v>
       </c>
       <c r="B330" t="s">
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D330">
         <v>9</v>
@@ -11042,14 +11040,14 @@
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A331" s="3">
+      <c r="A331">
         <v>3338</v>
       </c>
       <c r="B331" t="s">
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D331">
         <v>9</v>
@@ -11074,14 +11072,14 @@
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A332" s="3">
+      <c r="A332">
         <v>3295</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D332">
         <v>9</v>
@@ -11106,14 +11104,14 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A333" s="3">
+      <c r="A333">
         <v>3288</v>
       </c>
       <c r="B333" t="s">
         <v>10</v>
       </c>
       <c r="C333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D333">
         <v>9</v>
@@ -11138,14 +11136,14 @@
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A334" s="3">
+      <c r="A334">
         <v>3488</v>
       </c>
       <c r="B334" t="s">
         <v>10</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D334">
         <v>9</v>
@@ -11170,14 +11168,14 @@
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A335" s="3">
+      <c r="A335">
         <v>3274</v>
       </c>
       <c r="B335" t="s">
         <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D335">
         <v>9</v>
@@ -11202,14 +11200,14 @@
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A336" s="3">
+      <c r="A336">
         <v>3292</v>
       </c>
       <c r="B336" t="s">
         <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D336">
         <v>9</v>
@@ -11234,14 +11232,14 @@
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A337" s="3">
+      <c r="A337">
         <v>3295</v>
       </c>
       <c r="B337" t="s">
         <v>10</v>
       </c>
       <c r="C337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D337">
         <v>9</v>
@@ -11266,14 +11264,14 @@
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A338" s="3">
+      <c r="A338">
         <v>3231</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D338">
         <v>9</v>
@@ -11298,14 +11296,14 @@
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A339" s="3">
+      <c r="A339">
         <v>3463</v>
       </c>
       <c r="B339" t="s">
         <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D339">
         <v>9</v>
@@ -11330,14 +11328,14 @@
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A340" s="3">
+      <c r="A340">
         <v>3310</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D340">
         <v>9</v>
@@ -11362,14 +11360,14 @@
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A341" s="3">
+      <c r="A341">
         <v>3379</v>
       </c>
       <c r="B341" t="s">
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D341">
         <v>9</v>
@@ -11394,14 +11392,14 @@
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A342" s="3">
+      <c r="A342">
         <v>3178</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
       </c>
       <c r="C342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D342">
         <v>9</v>
@@ -11426,14 +11424,14 @@
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A343" s="3">
+      <c r="A343">
         <v>3334</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
       </c>
       <c r="C343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D343">
         <v>9</v>
@@ -11458,14 +11456,14 @@
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A344" s="3">
+      <c r="A344">
         <v>3180</v>
       </c>
       <c r="B344" t="s">
         <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D344">
         <v>9</v>
@@ -11490,14 +11488,14 @@
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A345" s="3">
+      <c r="A345">
         <v>3464</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
       </c>
       <c r="C345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D345">
         <v>9</v>
@@ -11522,14 +11520,14 @@
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A346" s="3">
+      <c r="A346">
         <v>3024</v>
       </c>
       <c r="B346" t="s">
         <v>10</v>
       </c>
       <c r="C346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D346">
         <v>9</v>
@@ -11554,14 +11552,14 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A347" s="3">
+      <c r="A347">
         <v>3431</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D347">
         <v>9</v>
@@ -11586,14 +11584,14 @@
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A348" s="3">
+      <c r="A348">
         <v>3461</v>
       </c>
       <c r="B348" t="s">
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D348">
         <v>9</v>
@@ -11618,14 +11616,14 @@
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A349" s="3">
+      <c r="A349">
         <v>3406</v>
       </c>
       <c r="B349" t="s">
         <v>10</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D349">
         <v>9</v>
@@ -11650,14 +11648,14 @@
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A350" s="3">
+      <c r="A350">
         <v>3413</v>
       </c>
       <c r="B350" t="s">
         <v>10</v>
       </c>
       <c r="C350" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D350">
         <v>9</v>
@@ -11682,14 +11680,14 @@
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A351" s="3">
+      <c r="A351">
         <v>3330</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
       </c>
       <c r="C351" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D351">
         <v>9</v>
@@ -11714,14 +11712,14 @@
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A352" s="3">
+      <c r="A352">
         <v>3012</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D352">
         <v>9</v>
@@ -11746,14 +11744,14 @@
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A353" s="3">
+      <c r="A353">
         <v>3397</v>
       </c>
       <c r="B353" t="s">
         <v>10</v>
       </c>
       <c r="C353" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D353">
         <v>9</v>
@@ -11778,14 +11776,14 @@
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A354" s="3">
+      <c r="A354">
         <v>3576</v>
       </c>
       <c r="B354" t="s">
         <v>10</v>
       </c>
       <c r="C354" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D354">
         <v>9</v>
@@ -11810,14 +11808,14 @@
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A355" s="3">
+      <c r="A355">
         <v>3220</v>
       </c>
       <c r="B355" t="s">
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D355">
         <v>9</v>
@@ -11842,14 +11840,14 @@
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A356" s="3">
+      <c r="A356">
         <v>3283</v>
       </c>
       <c r="B356" t="s">
         <v>10</v>
       </c>
       <c r="C356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D356">
         <v>9</v>
@@ -11874,14 +11872,14 @@
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A357" s="3">
+      <c r="A357">
         <v>4050</v>
       </c>
       <c r="B357" t="s">
         <v>10</v>
       </c>
       <c r="C357" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -11906,14 +11904,14 @@
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A358" s="3">
+      <c r="A358">
         <v>4153</v>
       </c>
       <c r="B358" t="s">
         <v>10</v>
       </c>
       <c r="C358" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D358">
         <v>3</v>
@@ -11938,14 +11936,14 @@
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A359" s="3">
+      <c r="A359">
         <v>4152</v>
       </c>
       <c r="B359" t="s">
         <v>10</v>
       </c>
       <c r="C359" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D359">
         <v>3</v>
@@ -11970,14 +11968,14 @@
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A360" s="3">
+      <c r="A360">
         <v>4079</v>
       </c>
       <c r="B360" t="s">
         <v>10</v>
       </c>
       <c r="C360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -12002,14 +12000,14 @@
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A361" s="3">
+      <c r="A361">
         <v>4149</v>
       </c>
       <c r="B361" t="s">
         <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -12034,14 +12032,14 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A362" s="3">
+      <c r="A362">
         <v>4058</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
       </c>
       <c r="C362" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D362">
         <v>3</v>
@@ -12066,14 +12064,14 @@
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A363" s="3">
+      <c r="A363">
         <v>4073</v>
       </c>
       <c r="B363" t="s">
         <v>10</v>
       </c>
       <c r="C363" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D363">
         <v>3</v>
@@ -12098,14 +12096,14 @@
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A364" s="3">
+      <c r="A364">
         <v>4130</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D364">
         <v>3</v>
@@ -12130,14 +12128,14 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A365" s="3">
+      <c r="A365">
         <v>4087</v>
       </c>
       <c r="B365" t="s">
         <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D365">
         <v>3</v>
@@ -12162,14 +12160,14 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A366" s="3">
+      <c r="A366">
         <v>4104</v>
       </c>
       <c r="B366" t="s">
         <v>10</v>
       </c>
       <c r="C366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D366">
         <v>3</v>
@@ -12194,14 +12192,14 @@
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A367" s="3">
+      <c r="A367">
         <v>4071</v>
       </c>
       <c r="B367" t="s">
         <v>10</v>
       </c>
       <c r="C367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D367">
         <v>3</v>
@@ -12226,14 +12224,14 @@
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A368" s="3">
+      <c r="A368">
         <v>4156</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
       </c>
       <c r="C368" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D368">
         <v>3</v>
@@ -12258,14 +12256,14 @@
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A369" s="3">
+      <c r="A369">
         <v>4053</v>
       </c>
       <c r="B369" t="s">
         <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D369">
         <v>3</v>
@@ -12290,14 +12288,14 @@
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A370" s="3">
+      <c r="A370">
         <v>4048</v>
       </c>
       <c r="B370" t="s">
         <v>11</v>
       </c>
       <c r="C370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D370">
         <v>3</v>
@@ -12322,14 +12320,14 @@
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A371" s="3">
+      <c r="A371">
         <v>4062</v>
       </c>
       <c r="B371" t="s">
         <v>10</v>
       </c>
       <c r="C371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D371">
         <v>3</v>
@@ -12354,14 +12352,14 @@
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A372" s="3">
+      <c r="A372">
         <v>4151</v>
       </c>
       <c r="B372" t="s">
         <v>10</v>
       </c>
       <c r="C372" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D372">
         <v>3</v>
@@ -12386,14 +12384,14 @@
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A373" s="3">
+      <c r="A373">
         <v>4057</v>
       </c>
       <c r="B373" t="s">
         <v>10</v>
       </c>
       <c r="C373" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D373">
         <v>3</v>
@@ -12418,14 +12416,14 @@
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A374" s="3">
+      <c r="A374">
         <v>4081</v>
       </c>
       <c r="B374" t="s">
         <v>10</v>
       </c>
       <c r="C374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -12450,14 +12448,14 @@
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A375" s="3">
+      <c r="A375">
         <v>4024</v>
       </c>
       <c r="B375" t="s">
         <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -12482,7 +12480,7 @@
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A376" s="3">
+      <c r="A376">
         <v>3974</v>
       </c>
       <c r="B376" t="s">
@@ -12514,7 +12512,7 @@
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A377" s="3">
+      <c r="A377">
         <v>3884</v>
       </c>
       <c r="B377" t="s">
@@ -12546,7 +12544,7 @@
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A378" s="3">
+      <c r="A378">
         <v>3880</v>
       </c>
       <c r="B378" t="s">
@@ -12578,7 +12576,7 @@
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A379" s="3">
+      <c r="A379">
         <v>3978</v>
       </c>
       <c r="B379" t="s">
@@ -12610,7 +12608,7 @@
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A380" s="3">
+      <c r="A380">
         <v>3530</v>
       </c>
       <c r="B380" t="s">
@@ -12642,7 +12640,7 @@
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A381" s="3">
+      <c r="A381">
         <v>3876</v>
       </c>
       <c r="B381" t="s">
@@ -12674,7 +12672,7 @@
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A382" s="3">
+      <c r="A382">
         <v>3552</v>
       </c>
       <c r="B382" t="s">
@@ -12706,7 +12704,7 @@
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A383" s="3">
+      <c r="A383">
         <v>3967</v>
       </c>
       <c r="B383" t="s">
@@ -12738,7 +12736,7 @@
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A384" s="3">
+      <c r="A384">
         <v>3746</v>
       </c>
       <c r="B384" t="s">
@@ -12770,7 +12768,7 @@
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A385" s="3">
+      <c r="A385">
         <v>3831</v>
       </c>
       <c r="B385" t="s">
@@ -12802,7 +12800,7 @@
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A386" s="3">
+      <c r="A386">
         <v>3954</v>
       </c>
       <c r="B386" t="s">
@@ -12834,7 +12832,7 @@
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A387" s="3">
+      <c r="A387">
         <v>3948</v>
       </c>
       <c r="B387" t="s">
@@ -12866,7 +12864,7 @@
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A388" s="3">
+      <c r="A388">
         <v>3935</v>
       </c>
       <c r="B388" t="s">
@@ -12898,7 +12896,7 @@
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A389" s="3">
+      <c r="A389">
         <v>3798</v>
       </c>
       <c r="B389" t="s">
@@ -12930,7 +12928,7 @@
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A390" s="3">
+      <c r="A390">
         <v>3990</v>
       </c>
       <c r="B390" t="s">
@@ -12962,7 +12960,7 @@
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A391" s="3">
+      <c r="A391">
         <v>3706</v>
       </c>
       <c r="B391" t="s">
@@ -12994,14 +12992,14 @@
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A392" s="3">
+      <c r="A392">
         <v>3433</v>
       </c>
       <c r="B392" t="s">
         <v>10</v>
       </c>
       <c r="C392" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D392">
         <v>9</v>
@@ -13026,14 +13024,14 @@
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A393" s="3">
+      <c r="A393">
         <v>3312</v>
       </c>
       <c r="B393" t="s">
         <v>10</v>
       </c>
       <c r="C393" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D393">
         <v>9</v>
@@ -13058,14 +13056,14 @@
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A394" s="3">
+      <c r="A394">
         <v>3268</v>
       </c>
       <c r="B394" t="s">
         <v>10</v>
       </c>
       <c r="C394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D394">
         <v>9</v>
@@ -13090,14 +13088,14 @@
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A395" s="3">
+      <c r="A395">
         <v>3562</v>
       </c>
       <c r="B395" t="s">
         <v>11</v>
       </c>
       <c r="C395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D395">
         <v>9</v>
@@ -13122,14 +13120,14 @@
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A396" s="3">
+      <c r="A396">
         <v>3532</v>
       </c>
       <c r="B396" t="s">
         <v>11</v>
       </c>
       <c r="C396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D396">
         <v>9</v>
@@ -13154,14 +13152,14 @@
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A397" s="3">
+      <c r="A397">
         <v>3389</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
       </c>
       <c r="C397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D397">
         <v>9</v>
@@ -13186,14 +13184,14 @@
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A398" s="3">
+      <c r="A398">
         <v>3572</v>
       </c>
       <c r="B398" t="s">
         <v>10</v>
       </c>
       <c r="C398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D398">
         <v>9</v>
@@ -13218,14 +13216,14 @@
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A399" s="3">
+      <c r="A399">
         <v>3279</v>
       </c>
       <c r="B399" t="s">
         <v>10</v>
       </c>
       <c r="C399" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D399">
         <v>9</v>
@@ -13250,14 +13248,14 @@
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A400" s="3">
+      <c r="A400">
         <v>3427</v>
       </c>
       <c r="B400" t="s">
         <v>10</v>
       </c>
       <c r="C400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D400">
         <v>9</v>
@@ -13282,14 +13280,14 @@
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A401" s="3">
+      <c r="A401">
         <v>3554</v>
       </c>
       <c r="B401" t="s">
         <v>10</v>
       </c>
       <c r="C401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D401">
         <v>9</v>
@@ -13314,14 +13312,14 @@
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A402" s="3">
+      <c r="A402">
         <v>3020</v>
       </c>
       <c r="B402" t="s">
         <v>10</v>
       </c>
       <c r="C402" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D402">
         <v>9</v>
@@ -13346,14 +13344,14 @@
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A403" s="3">
+      <c r="A403">
         <v>3024</v>
       </c>
       <c r="B403" t="s">
         <v>10</v>
       </c>
       <c r="C403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D403">
         <v>9</v>
@@ -13378,14 +13376,14 @@
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A404" s="3">
+      <c r="A404">
         <v>3467</v>
       </c>
       <c r="B404" t="s">
         <v>10</v>
       </c>
       <c r="C404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D404">
         <v>9</v>
@@ -13410,14 +13408,14 @@
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A405" s="3">
+      <c r="A405">
         <v>3551</v>
       </c>
       <c r="B405" t="s">
         <v>10</v>
       </c>
       <c r="C405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D405">
         <v>9</v>
@@ -13442,14 +13440,14 @@
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A406" s="3">
+      <c r="A406">
         <v>3477</v>
       </c>
       <c r="B406" t="s">
         <v>11</v>
       </c>
       <c r="C406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D406">
         <v>9</v>
@@ -13474,14 +13472,14 @@
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A407" s="3">
+      <c r="A407">
         <v>2965</v>
       </c>
       <c r="B407" t="s">
         <v>10</v>
       </c>
       <c r="C407" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D407">
         <v>9</v>
@@ -13506,14 +13504,14 @@
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A408" s="3">
+      <c r="A408">
         <v>3375</v>
       </c>
       <c r="B408" t="s">
         <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D408">
         <v>9</v>
@@ -13538,7 +13536,7 @@
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A409" s="3">
+      <c r="A409">
         <v>3924</v>
       </c>
       <c r="B409" t="s">
@@ -13570,7 +13568,7 @@
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A410" s="3">
+      <c r="A410">
         <v>4004</v>
       </c>
       <c r="B410" t="s">
@@ -13602,7 +13600,7 @@
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A411" s="3">
+      <c r="A411">
         <v>3386</v>
       </c>
       <c r="B411" t="s">
@@ -13634,7 +13632,7 @@
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A412" s="3">
+      <c r="A412">
         <v>3482</v>
       </c>
       <c r="B412" t="s">
@@ -13666,7 +13664,7 @@
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A413" s="3">
+      <c r="A413">
         <v>4040</v>
       </c>
       <c r="B413" t="s">
@@ -13698,7 +13696,7 @@
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A414" s="3">
+      <c r="A414">
         <v>4046</v>
       </c>
       <c r="B414" t="s">
@@ -13730,7 +13728,7 @@
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A415" s="3">
+      <c r="A415">
         <v>3965</v>
       </c>
       <c r="B415" t="s">
@@ -13762,7 +13760,7 @@
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A416" s="3">
+      <c r="A416">
         <v>4019</v>
       </c>
       <c r="B416" t="s">
@@ -13794,7 +13792,7 @@
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A417" s="3">
+      <c r="A417">
         <v>4065</v>
       </c>
       <c r="B417" t="s">
@@ -13826,7 +13824,7 @@
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A418" s="3">
+      <c r="A418">
         <v>4149</v>
       </c>
       <c r="B418" t="s">
@@ -13858,7 +13856,7 @@
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A419" s="3">
+      <c r="A419">
         <v>4058</v>
       </c>
       <c r="B419" t="s">
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A420" s="3">
+      <c r="A420">
         <v>4070</v>
       </c>
       <c r="B420" t="s">
@@ -13922,7 +13920,7 @@
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A421" s="3">
+      <c r="A421">
         <v>4017</v>
       </c>
       <c r="B421" t="s">
@@ -13954,7 +13952,7 @@
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A422" s="3">
+      <c r="A422">
         <v>4065</v>
       </c>
       <c r="B422" t="s">
@@ -13986,7 +13984,7 @@
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A423" s="3">
+      <c r="A423">
         <v>4009</v>
       </c>
       <c r="B423" t="s">
@@ -14018,7 +14016,7 @@
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A424" s="3">
+      <c r="A424">
         <v>4085</v>
       </c>
       <c r="B424" t="s">
@@ -14050,7 +14048,7 @@
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A425" s="3">
+      <c r="A425">
         <v>4037</v>
       </c>
       <c r="B425" t="s">
@@ -14082,7 +14080,7 @@
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A426" s="3">
+      <c r="A426">
         <v>3934</v>
       </c>
       <c r="B426" t="s">
@@ -14114,7 +14112,7 @@
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A427" s="3">
+      <c r="A427">
         <v>3748</v>
       </c>
       <c r="B427" t="s">
@@ -14146,7 +14144,7 @@
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A428" s="3">
+      <c r="A428">
         <v>4010</v>
       </c>
       <c r="B428" t="s">
@@ -14178,7 +14176,7 @@
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A429" s="3">
+      <c r="A429">
         <v>4081</v>
       </c>
       <c r="B429" t="s">
@@ -14210,7 +14208,7 @@
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A430" s="3">
+      <c r="A430">
         <v>4102</v>
       </c>
       <c r="B430" t="s">
@@ -14242,7 +14240,7 @@
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A431" s="3">
+      <c r="A431">
         <v>4009</v>
       </c>
       <c r="B431" t="s">
@@ -14274,7 +14272,7 @@
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A432" s="3">
+      <c r="A432">
         <v>4021</v>
       </c>
       <c r="B432" t="s">
@@ -14306,7 +14304,7 @@
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A433" s="3">
+      <c r="A433">
         <v>3615</v>
       </c>
       <c r="B433" t="s">
@@ -14338,7 +14336,7 @@
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A434" s="3">
+      <c r="A434">
         <v>4053</v>
       </c>
       <c r="B434" t="s">
@@ -14370,7 +14368,7 @@
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A435" s="3">
+      <c r="A435">
         <v>4004</v>
       </c>
       <c r="B435" t="s">
@@ -14402,7 +14400,7 @@
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A436" s="3">
+      <c r="A436">
         <v>4007</v>
       </c>
       <c r="B436" t="s">
@@ -14434,7 +14432,7 @@
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A437" s="3">
+      <c r="A437">
         <v>3988</v>
       </c>
       <c r="B437" t="s">
@@ -14466,7 +14464,7 @@
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A438" s="3">
+      <c r="A438">
         <v>4034</v>
       </c>
       <c r="B438" t="s">
@@ -14498,14 +14496,14 @@
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A439" s="3">
+      <c r="A439">
         <v>4198</v>
       </c>
       <c r="B439" t="s">
         <v>10</v>
       </c>
       <c r="C439" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D439">
         <v>3</v>
@@ -14530,14 +14528,14 @@
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A440" s="3">
+      <c r="A440">
         <v>4188</v>
       </c>
       <c r="B440" t="s">
         <v>10</v>
       </c>
       <c r="C440" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D440">
         <v>3</v>
@@ -14562,14 +14560,14 @@
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A441" s="3">
+      <c r="A441">
         <v>4192</v>
       </c>
       <c r="B441" t="s">
         <v>10</v>
       </c>
       <c r="C441" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D441">
         <v>3</v>
@@ -14594,14 +14592,14 @@
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A442" s="3">
+      <c r="A442">
         <v>4173</v>
       </c>
       <c r="B442" t="s">
         <v>10</v>
       </c>
       <c r="C442" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D442">
         <v>3</v>
@@ -14626,14 +14624,14 @@
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A443" s="3">
+      <c r="A443">
         <v>4207</v>
       </c>
       <c r="B443" t="s">
         <v>11</v>
       </c>
       <c r="C443" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D443">
         <v>3</v>
@@ -14658,14 +14656,14 @@
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A444" s="3">
+      <c r="A444">
         <v>4251</v>
       </c>
       <c r="B444" t="s">
         <v>10</v>
       </c>
       <c r="C444" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D444">
         <v>3</v>
@@ -14690,14 +14688,14 @@
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A445" s="3">
+      <c r="A445">
         <v>4221</v>
       </c>
       <c r="B445" t="s">
         <v>10</v>
       </c>
       <c r="C445" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D445">
         <v>3</v>
@@ -14722,14 +14720,14 @@
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A446" s="3">
+      <c r="A446">
         <v>4195</v>
       </c>
       <c r="B446" t="s">
         <v>10</v>
       </c>
       <c r="C446" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D446">
         <v>3</v>
@@ -14754,14 +14752,14 @@
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A447" s="3">
+      <c r="A447">
         <v>4235</v>
       </c>
       <c r="B447" t="s">
         <v>10</v>
       </c>
       <c r="C447" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D447">
         <v>3</v>
@@ -14786,14 +14784,14 @@
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A448" s="3">
+      <c r="A448">
         <v>4272</v>
       </c>
       <c r="B448" t="s">
         <v>10</v>
       </c>
       <c r="C448" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D448">
         <v>3</v>
@@ -14818,14 +14816,14 @@
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A449" s="3">
+      <c r="A449">
         <v>4213</v>
       </c>
       <c r="B449" t="s">
         <v>10</v>
       </c>
       <c r="C449" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D449">
         <v>3</v>
@@ -14850,14 +14848,14 @@
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A450" s="3">
+      <c r="A450">
         <v>4179</v>
       </c>
       <c r="B450" t="s">
         <v>10</v>
       </c>
       <c r="C450" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D450">
         <v>3</v>
@@ -14882,14 +14880,14 @@
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A451" s="3">
+      <c r="A451">
         <v>4021</v>
       </c>
       <c r="B451" t="s">
         <v>10</v>
       </c>
       <c r="C451" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D451">
         <v>3</v>
@@ -14914,14 +14912,14 @@
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A452" s="3">
+      <c r="A452">
         <v>4185</v>
       </c>
       <c r="B452" t="s">
         <v>10</v>
       </c>
       <c r="C452" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D452">
         <v>3</v>
@@ -14946,14 +14944,14 @@
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A453" s="3">
+      <c r="A453">
         <v>4157</v>
       </c>
       <c r="B453" t="s">
         <v>10</v>
       </c>
       <c r="C453" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -14978,14 +14976,14 @@
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A454" s="3">
+      <c r="A454">
         <v>4256</v>
       </c>
       <c r="B454" t="s">
         <v>10</v>
       </c>
       <c r="C454" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -15010,14 +15008,14 @@
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A455" s="3">
+      <c r="A455">
         <v>4190</v>
       </c>
       <c r="B455" t="s">
         <v>10</v>
       </c>
       <c r="C455" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D455">
         <v>3</v>
@@ -15042,14 +15040,14 @@
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A456" s="3">
+      <c r="A456">
         <v>4296</v>
       </c>
       <c r="B456" t="s">
         <v>10</v>
       </c>
       <c r="C456" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D456">
         <v>3</v>
@@ -15074,14 +15072,14 @@
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A457" s="3">
+      <c r="A457">
         <v>4268</v>
       </c>
       <c r="B457" t="s">
         <v>10</v>
       </c>
       <c r="C457" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D457">
         <v>3</v>
@@ -15106,14 +15104,14 @@
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A458" s="3">
+      <c r="A458">
         <v>4046</v>
       </c>
       <c r="B458" t="s">
         <v>11</v>
       </c>
       <c r="C458" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D458">
         <v>3</v>
@@ -15138,14 +15136,14 @@
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A459" s="3">
+      <c r="A459">
         <v>4231</v>
       </c>
       <c r="B459" t="s">
         <v>10</v>
       </c>
       <c r="C459" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D459">
         <v>3</v>
@@ -15170,14 +15168,14 @@
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A460" s="3">
+      <c r="A460">
         <v>4269</v>
       </c>
       <c r="B460" t="s">
         <v>10</v>
       </c>
       <c r="C460" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -15202,14 +15200,14 @@
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A461" s="3">
+      <c r="A461">
         <v>4055</v>
       </c>
       <c r="B461" t="s">
         <v>10</v>
       </c>
       <c r="C461" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D461">
         <v>3</v>
@@ -15234,14 +15232,14 @@
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A462" s="3">
+      <c r="A462">
         <v>4210</v>
       </c>
       <c r="B462" t="s">
         <v>11</v>
       </c>
       <c r="C462" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D462">
         <v>3</v>
@@ -15266,14 +15264,14 @@
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A463" s="3">
+      <c r="A463">
         <v>4172</v>
       </c>
       <c r="B463" t="s">
         <v>10</v>
       </c>
       <c r="C463" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D463">
         <v>3</v>
@@ -15298,14 +15296,14 @@
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A464" s="3">
+      <c r="A464">
         <v>4211</v>
       </c>
       <c r="B464" t="s">
         <v>11</v>
       </c>
       <c r="C464" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D464">
         <v>3</v>
@@ -15330,14 +15328,14 @@
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A465" s="3">
+      <c r="A465">
         <v>4242</v>
       </c>
       <c r="B465" t="s">
         <v>10</v>
       </c>
       <c r="C465" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D465">
         <v>3</v>
@@ -15362,14 +15360,14 @@
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A466" s="3">
+      <c r="A466">
         <v>4232</v>
       </c>
       <c r="B466" t="s">
         <v>10</v>
       </c>
       <c r="C466" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D466">
         <v>3</v>
@@ -15394,14 +15392,14 @@
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A467" s="3">
+      <c r="A467">
         <v>3942</v>
       </c>
       <c r="B467" t="s">
         <v>10</v>
       </c>
       <c r="C467" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D467">
         <v>3</v>
@@ -15426,7 +15424,7 @@
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A468" s="3">
+      <c r="A468">
         <v>4106</v>
       </c>
       <c r="B468" t="s">
@@ -15458,7 +15456,7 @@
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A469" s="3">
+      <c r="A469">
         <v>3922</v>
       </c>
       <c r="B469" t="s">
@@ -15490,7 +15488,7 @@
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A470" s="3">
+      <c r="A470">
         <v>3429</v>
       </c>
       <c r="B470" t="s">
@@ -15522,7 +15520,7 @@
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A471" s="3">
+      <c r="A471">
         <v>3386</v>
       </c>
       <c r="B471" t="s">
@@ -15554,7 +15552,7 @@
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A472" s="3">
+      <c r="A472">
         <v>4137</v>
       </c>
       <c r="B472" t="s">
@@ -15586,7 +15584,7 @@
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A473" s="3">
+      <c r="A473">
         <v>4114</v>
       </c>
       <c r="B473" t="s">
@@ -15618,7 +15616,7 @@
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A474" s="3">
+      <c r="A474">
         <v>4152</v>
       </c>
       <c r="B474" t="s">
@@ -15650,7 +15648,7 @@
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A475" s="3">
+      <c r="A475">
         <v>4042</v>
       </c>
       <c r="B475" t="s">
@@ -15682,7 +15680,7 @@
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A476" s="3">
+      <c r="A476">
         <v>3532</v>
       </c>
       <c r="B476" t="s">
@@ -15714,7 +15712,7 @@
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A477" s="3">
+      <c r="A477">
         <v>4124</v>
       </c>
       <c r="B477" t="s">
@@ -15746,7 +15744,7 @@
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A478" s="3">
+      <c r="A478">
         <v>4108</v>
       </c>
       <c r="B478" t="s">
@@ -15778,7 +15776,7 @@
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A479" s="3">
+      <c r="A479">
         <v>4058</v>
       </c>
       <c r="B479" t="s">
@@ -15810,7 +15808,7 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A480" s="3">
+      <c r="A480">
         <v>4013</v>
       </c>
       <c r="B480" t="s">
@@ -15842,7 +15840,7 @@
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A481" s="3">
+      <c r="A481">
         <v>4133</v>
       </c>
       <c r="B481" t="s">
@@ -15874,7 +15872,7 @@
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A482" s="3">
+      <c r="A482">
         <v>4073</v>
       </c>
       <c r="B482" t="s">
@@ -15906,7 +15904,7 @@
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A483" s="3">
+      <c r="A483">
         <v>4061</v>
       </c>
       <c r="B483" t="s">
@@ -15938,7 +15936,7 @@
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A484" s="3">
+      <c r="A484">
         <v>4065</v>
       </c>
       <c r="B484" t="s">
@@ -15970,7 +15968,7 @@
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A485" s="3">
+      <c r="A485">
         <v>4105</v>
       </c>
       <c r="B485" t="s">
@@ -16002,7 +16000,7 @@
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A486" s="3">
+      <c r="A486">
         <v>3934</v>
       </c>
       <c r="B486" t="s">
@@ -16034,7 +16032,7 @@
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A487" s="3">
+      <c r="A487">
         <v>4109</v>
       </c>
       <c r="B487" t="s">
@@ -16066,7 +16064,7 @@
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A488" s="3">
+      <c r="A488">
         <v>4121</v>
       </c>
       <c r="B488" t="s">
@@ -16098,7 +16096,7 @@
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A489" s="3">
+      <c r="A489">
         <v>4111</v>
       </c>
       <c r="B489" t="s">
@@ -16130,7 +16128,7 @@
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A490" s="3">
+      <c r="A490">
         <v>4032</v>
       </c>
       <c r="B490" t="s">
@@ -16162,7 +16160,7 @@
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A491" s="3">
+      <c r="A491">
         <v>4021</v>
       </c>
       <c r="B491" t="s">
@@ -16194,7 +16192,7 @@
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A492" s="3">
+      <c r="A492">
         <v>4121</v>
       </c>
       <c r="B492" t="s">
@@ -16226,7 +16224,7 @@
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A493" s="3">
+      <c r="A493">
         <v>4148</v>
       </c>
       <c r="B493" t="s">
@@ -16258,7 +16256,7 @@
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A494" s="3">
+      <c r="A494">
         <v>4155</v>
       </c>
       <c r="B494" t="s">
@@ -16290,7 +16288,7 @@
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A495" s="3">
+      <c r="A495">
         <v>4070</v>
       </c>
       <c r="B495" t="s">
@@ -16322,7 +16320,7 @@
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A496" s="3">
+      <c r="A496">
         <v>4035</v>
       </c>
       <c r="B496" t="s">
@@ -16354,7 +16352,7 @@
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A497" s="3">
+      <c r="A497">
         <v>4136</v>
       </c>
       <c r="B497" t="s">
@@ -16386,7 +16384,7 @@
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A498" s="3">
+      <c r="A498">
         <v>3887</v>
       </c>
       <c r="B498" t="s">
@@ -16418,7 +16416,7 @@
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A499" s="3">
+      <c r="A499">
         <v>3732</v>
       </c>
       <c r="B499" t="s">
@@ -16450,7 +16448,7 @@
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A500" s="3">
+      <c r="A500">
         <v>4051</v>
       </c>
       <c r="B500" t="s">
@@ -16482,14 +16480,14 @@
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A501" s="3">
+      <c r="A501">
         <v>4036</v>
       </c>
       <c r="B501" t="s">
         <v>10</v>
       </c>
       <c r="C501" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D501">
         <v>6</v>
@@ -16514,14 +16512,14 @@
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A502" s="3">
+      <c r="A502">
         <v>4004</v>
       </c>
       <c r="B502" t="s">
         <v>11</v>
       </c>
       <c r="C502" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D502">
         <v>6</v>
@@ -16546,14 +16544,14 @@
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A503" s="3">
+      <c r="A503">
         <v>3872</v>
       </c>
       <c r="B503" t="s">
         <v>11</v>
       </c>
       <c r="C503" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D503">
         <v>6</v>
@@ -16578,14 +16576,14 @@
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A504" s="3">
+      <c r="A504">
         <v>3794</v>
       </c>
       <c r="B504" t="s">
         <v>10</v>
       </c>
       <c r="C504" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D504">
         <v>6</v>
@@ -16610,14 +16608,14 @@
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A505" s="3">
+      <c r="A505">
         <v>4075</v>
       </c>
       <c r="B505" t="s">
         <v>11</v>
       </c>
       <c r="C505" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D505">
         <v>6</v>
@@ -16642,14 +16640,14 @@
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A506" s="3">
+      <c r="A506">
         <v>4045</v>
       </c>
       <c r="B506" t="s">
         <v>10</v>
       </c>
       <c r="C506" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D506">
         <v>6</v>
@@ -16674,14 +16672,14 @@
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A507" s="3">
+      <c r="A507">
         <v>3740</v>
       </c>
       <c r="B507" t="s">
         <v>10</v>
       </c>
       <c r="C507" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D507">
         <v>6</v>
@@ -16706,14 +16704,14 @@
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A508" s="3">
+      <c r="A508">
         <v>4067</v>
       </c>
       <c r="B508" t="s">
         <v>11</v>
       </c>
       <c r="C508" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D508">
         <v>6</v>
@@ -16738,14 +16736,14 @@
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A509" s="3">
+      <c r="A509">
         <v>4011</v>
       </c>
       <c r="B509" t="s">
         <v>10</v>
       </c>
       <c r="C509" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D509">
         <v>6</v>
@@ -16770,14 +16768,14 @@
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A510" s="3">
+      <c r="A510">
         <v>4051</v>
       </c>
       <c r="B510" t="s">
         <v>11</v>
       </c>
       <c r="C510" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D510">
         <v>6</v>
@@ -16802,14 +16800,14 @@
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A511" s="3">
+      <c r="A511">
         <v>3748</v>
       </c>
       <c r="B511" t="s">
         <v>10</v>
       </c>
       <c r="C511" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D511">
         <v>6</v>
@@ -16834,14 +16832,14 @@
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A512" s="3">
+      <c r="A512">
         <v>4061</v>
       </c>
       <c r="B512" t="s">
         <v>10</v>
       </c>
       <c r="C512" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D512">
         <v>6</v>
@@ -16866,14 +16864,14 @@
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A513" s="3">
+      <c r="A513">
         <v>3970</v>
       </c>
       <c r="B513" t="s">
         <v>10</v>
       </c>
       <c r="C513" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D513">
         <v>6</v>
@@ -16898,14 +16896,14 @@
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A514" s="3">
+      <c r="A514">
         <v>4065</v>
       </c>
       <c r="B514" t="s">
         <v>10</v>
       </c>
       <c r="C514" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D514">
         <v>6</v>
@@ -16930,14 +16928,14 @@
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A515" s="3">
+      <c r="A515">
         <v>3552</v>
       </c>
       <c r="B515" t="s">
         <v>10</v>
       </c>
       <c r="C515" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D515">
         <v>6</v>
@@ -16962,14 +16960,14 @@
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A516" s="3">
+      <c r="A516">
         <v>3663</v>
       </c>
       <c r="B516" t="s">
         <v>10</v>
       </c>
       <c r="C516" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D516">
         <v>6</v>
@@ -16994,14 +16992,14 @@
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A517" s="3">
+      <c r="A517">
         <v>4011</v>
       </c>
       <c r="B517" t="s">
         <v>10</v>
       </c>
       <c r="C517" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D517">
         <v>6</v>
@@ -17026,14 +17024,14 @@
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A518" s="3">
+      <c r="A518">
         <v>4081</v>
       </c>
       <c r="B518" t="s">
         <v>10</v>
       </c>
       <c r="C518" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D518">
         <v>6</v>
@@ -17058,14 +17056,14 @@
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A519" s="3">
+      <c r="A519">
         <v>4102</v>
       </c>
       <c r="B519" t="s">
         <v>10</v>
       </c>
       <c r="C519" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D519">
         <v>6</v>
@@ -17090,14 +17088,14 @@
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A520" s="3">
+      <c r="A520">
         <v>3959</v>
       </c>
       <c r="B520" t="s">
         <v>11</v>
       </c>
       <c r="C520" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D520">
         <v>6</v>
@@ -17122,14 +17120,14 @@
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A521" s="3">
+      <c r="A521">
         <v>3537</v>
       </c>
       <c r="B521" t="s">
         <v>10</v>
       </c>
       <c r="C521" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D521">
         <v>6</v>
@@ -17154,14 +17152,14 @@
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A522" s="3">
+      <c r="A522">
         <v>4031</v>
       </c>
       <c r="B522" t="s">
         <v>10</v>
       </c>
       <c r="C522" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D522">
         <v>6</v>
@@ -17186,14 +17184,14 @@
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A523" s="3">
+      <c r="A523">
         <v>3981</v>
       </c>
       <c r="B523" t="s">
         <v>10</v>
       </c>
       <c r="C523" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D523">
         <v>6</v>
@@ -17218,14 +17216,14 @@
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A524" s="3">
+      <c r="A524">
         <v>3818</v>
       </c>
       <c r="B524" t="s">
         <v>10</v>
       </c>
       <c r="C524" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D524">
         <v>6</v>
@@ -17250,14 +17248,14 @@
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A525" s="3">
+      <c r="A525">
         <v>4033</v>
       </c>
       <c r="B525" t="s">
         <v>10</v>
       </c>
       <c r="C525" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D525">
         <v>6</v>
@@ -17282,14 +17280,14 @@
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A526" s="3">
+      <c r="A526">
         <v>3552</v>
       </c>
       <c r="B526" t="s">
         <v>10</v>
       </c>
       <c r="C526" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D526">
         <v>6</v>
@@ -17314,14 +17312,14 @@
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A527" s="3">
+      <c r="A527">
         <v>4082</v>
       </c>
       <c r="B527" t="s">
         <v>11</v>
       </c>
       <c r="C527" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D527">
         <v>6</v>
@@ -17346,14 +17344,14 @@
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A528" s="3">
+      <c r="A528">
         <v>3826</v>
       </c>
       <c r="B528" t="s">
         <v>11</v>
       </c>
       <c r="C528" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D528">
         <v>8</v>
@@ -17378,14 +17376,14 @@
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A529" s="3">
+      <c r="A529">
         <v>3044</v>
       </c>
       <c r="B529" t="s">
         <v>10</v>
       </c>
       <c r="C529" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D529">
         <v>8</v>
@@ -17410,14 +17408,14 @@
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A530" s="3">
+      <c r="A530">
         <v>3805</v>
       </c>
       <c r="B530" t="s">
         <v>10</v>
       </c>
       <c r="C530" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D530">
         <v>8</v>
@@ -17442,14 +17440,14 @@
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A531" s="3">
+      <c r="A531">
         <v>3776</v>
       </c>
       <c r="B531" t="s">
         <v>10</v>
       </c>
       <c r="C531" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D531">
         <v>8</v>
@@ -17474,14 +17472,14 @@
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A532" s="3">
+      <c r="A532">
         <v>2717</v>
       </c>
       <c r="B532" t="s">
         <v>10</v>
       </c>
       <c r="C532" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D532">
         <v>8</v>
@@ -17506,14 +17504,14 @@
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A533" s="3">
+      <c r="A533">
         <v>3280</v>
       </c>
       <c r="B533" t="s">
         <v>10</v>
       </c>
       <c r="C533" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D533">
         <v>8</v>
@@ -17538,14 +17536,14 @@
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A534" s="3">
+      <c r="A534">
         <v>3880</v>
       </c>
       <c r="B534" t="s">
         <v>11</v>
       </c>
       <c r="C534" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D534">
         <v>8</v>
@@ -17570,14 +17568,14 @@
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A535" s="3">
+      <c r="A535">
         <v>3544</v>
       </c>
       <c r="B535" t="s">
         <v>10</v>
       </c>
       <c r="C535" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D535">
         <v>8</v>
@@ -17602,14 +17600,14 @@
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A536" s="3">
+      <c r="A536">
         <v>3684</v>
       </c>
       <c r="B536" t="s">
         <v>10</v>
       </c>
       <c r="C536" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D536">
         <v>8</v>
@@ -17634,14 +17632,14 @@
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A537" s="3">
+      <c r="A537">
         <v>3731</v>
       </c>
       <c r="B537" t="s">
         <v>10</v>
       </c>
       <c r="C537" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D537">
         <v>8</v>
@@ -17666,14 +17664,14 @@
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A538" s="3">
+      <c r="A538">
         <v>3288</v>
       </c>
       <c r="B538" t="s">
         <v>10</v>
       </c>
       <c r="C538" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D538">
         <v>8</v>
@@ -17698,14 +17696,14 @@
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A539" s="3">
+      <c r="A539">
         <v>3874</v>
       </c>
       <c r="B539" t="s">
         <v>11</v>
       </c>
       <c r="C539" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D539">
         <v>8</v>
@@ -17730,14 +17728,14 @@
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A540" s="3">
+      <c r="A540">
         <v>3882</v>
       </c>
       <c r="B540" t="s">
         <v>10</v>
       </c>
       <c r="C540" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D540">
         <v>8</v>
@@ -17762,14 +17760,14 @@
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A541" s="3">
+      <c r="A541">
         <v>3859</v>
       </c>
       <c r="B541" t="s">
         <v>10</v>
       </c>
       <c r="C541" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D541">
         <v>8</v>
@@ -17794,14 +17792,14 @@
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A542" s="3">
+      <c r="A542">
         <v>3945</v>
       </c>
       <c r="B542" t="s">
         <v>10</v>
       </c>
       <c r="C542" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D542">
         <v>8</v>
@@ -17826,14 +17824,14 @@
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A543" s="3">
+      <c r="A543">
         <v>3944</v>
       </c>
       <c r="B543" t="s">
         <v>10</v>
       </c>
       <c r="C543" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D543">
         <v>8</v>
@@ -17858,14 +17856,14 @@
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A544" s="3">
+      <c r="A544">
         <v>3917</v>
       </c>
       <c r="B544" t="s">
         <v>10</v>
       </c>
       <c r="C544" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D544">
         <v>8</v>
@@ -17890,14 +17888,14 @@
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A545" s="3">
+      <c r="A545">
         <v>3912</v>
       </c>
       <c r="B545" t="s">
         <v>10</v>
       </c>
       <c r="C545" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D545">
         <v>8</v>
@@ -17922,14 +17920,14 @@
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A546" s="3">
+      <c r="A546">
         <v>3908</v>
       </c>
       <c r="B546" t="s">
         <v>11</v>
       </c>
       <c r="C546" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D546">
         <v>8</v>
@@ -17954,14 +17952,14 @@
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A547" s="3">
+      <c r="A547">
         <v>3895</v>
       </c>
       <c r="B547" t="s">
         <v>10</v>
       </c>
       <c r="C547" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D547">
         <v>8</v>
@@ -17986,14 +17984,14 @@
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A548" s="3">
+      <c r="A548">
         <v>3924</v>
       </c>
       <c r="B548" t="s">
         <v>10</v>
       </c>
       <c r="C548" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D548">
         <v>8</v>
